--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanjaz/PycharmProjects/CovidScraping/venv/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C8E107-0572-3E41-B09E-B6AFFCE6A76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076EB832-F886-7F41-8BEB-1B745F964936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{464DCFDB-4324-D045-8F0A-8EA6A92AF35E}"/>
+    <workbookView xWindow="2940" yWindow="3480" windowWidth="27240" windowHeight="16440" xr2:uid="{464DCFDB-4324-D045-8F0A-8EA6A92AF35E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -315,6 +315,42 @@
   </si>
   <si>
     <t>http://web.archive.org/web/20200426000309/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200430000150/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200501000005/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200502000135/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200503000016/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200504000124/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200505001110/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200506000008/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200507000115/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200508000027/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200509000004/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200510000004/https://www.worldometers.info/coronavirus/</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20200511000210/https://www.worldometers.info/coronavirus/</t>
   </si>
 </sst>
 </file>
@@ -671,7 +707,7 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,98 +1455,134 @@
       <c r="A93" s="1">
         <v>43950</v>
       </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43954</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43955</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43956</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43957</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43958</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43959</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43960</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43961</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43962</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43963</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43964</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43965</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43966</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43967</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43968</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43969</v>
       </c>
